--- a/Test/runas2test-results-1903-2013.11.03/runas2test-1903-2013.11.03.xlsx
+++ b/Test/runas2test-results-1903-2013.11.03/runas2test-1903-2013.11.03.xlsx
@@ -3255,11 +3255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173390472"/>
-        <c:axId val="523295672"/>
+        <c:axId val="38243432"/>
+        <c:axId val="517422760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173390472"/>
+        <c:axId val="38243432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -3268,7 +3268,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3297,12 +3296,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="523295672"/>
+        <c:crossAx val="517422760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523295672"/>
+        <c:axId val="517422760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -3310,7 +3309,6 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3339,7 +3337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173390472"/>
+        <c:crossAx val="38243432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3358,13 +3356,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23309460798728"/>
-          <c:y val="0.393551666486895"/>
+          <c:x val="0.202703829893912"/>
+          <c:y val="0.393551644279759"/>
           <c:w val="0.18184315134882"/>
           <c:h val="0.110156940998813"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3398,10 +3401,10 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3749,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
